--- a/raw-data/JRL_block1_30_15_7.xlsx
+++ b/raw-data/JRL_block1_30_15_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">918421152</definedName>
-    <definedName name="MethodPointer2">483</definedName>
+    <definedName name="MethodPointer1">416813824</definedName>
+    <definedName name="MethodPointer2">566</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_15_7.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_15_8.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -541,12 +541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFABCEEA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -559,7 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
+        <fgColor rgb="FF428EC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
+        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,12 +705,15 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,25 +723,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45767</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.55883101851851846</v>
+        <v>0.50510416666666669</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1631,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1639,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1676,35 +1682,35 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>14</v>
+      </c>
+      <c r="E49" s="9">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
+        <v>9</v>
+      </c>
+      <c r="G49" s="9">
         <v>11</v>
       </c>
-      <c r="D49" s="9">
-        <v>6</v>
-      </c>
-      <c r="E49" s="9">
-        <v>8</v>
-      </c>
-      <c r="F49" s="9">
-        <v>28</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="H49" s="9">
         <v>10</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
+        <v>10</v>
+      </c>
+      <c r="J49" s="9">
         <v>11</v>
       </c>
-      <c r="I49" s="9">
-        <v>9</v>
-      </c>
-      <c r="J49" s="9">
-        <v>9</v>
-      </c>
       <c r="K49" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L49" s="9">
         <v>12</v>
@@ -1720,314 +1726,314 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="10">
-        <v>0.88400000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D50" s="11">
-        <v>1.018</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="E50" s="12">
-        <v>1.125</v>
+        <v>1.103</v>
       </c>
       <c r="F50" s="13">
-        <v>1.0649999999999999</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="G50" s="12">
-        <v>1.151</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0.999</v>
-      </c>
-      <c r="I50" s="12">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="J50" s="14">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0.95199999999999996</v>
+        <v>1.081</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1.117</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0.97399999999999998</v>
       </c>
       <c r="L50" s="11">
-        <v>1.006</v>
-      </c>
-      <c r="M50" s="12">
-        <v>1.143</v>
-      </c>
-      <c r="N50" s="14">
-        <v>0.96199999999999997</v>
+        <v>1.016</v>
+      </c>
+      <c r="M50" s="14">
+        <v>1.165</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.99099999999999999</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E51" s="15">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="F51" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" s="9">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H51" s="16">
-        <v>2798</v>
+        <v>3798</v>
       </c>
       <c r="I51" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J51" s="9">
-        <v>10</v>
-      </c>
-      <c r="K51" s="16">
-        <v>2835</v>
+        <v>8</v>
+      </c>
+      <c r="K51" s="17">
+        <v>2023</v>
       </c>
       <c r="L51" s="9">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M51" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N51" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="17">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1.101</v>
-      </c>
-      <c r="E52" s="17">
-        <v>1.222</v>
-      </c>
-      <c r="F52" s="18">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1.147</v>
+      <c r="B52" s="32"/>
+      <c r="C52" s="18">
+        <v>1.224</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1.077</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1.022</v>
       </c>
       <c r="H52" s="19">
-        <v>1.33</v>
-      </c>
-      <c r="I52" s="12">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="J52" s="12">
-        <v>1.101</v>
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1.038</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1.046</v>
       </c>
       <c r="K52" s="19">
-        <v>1.2769999999999999</v>
+        <v>1.264</v>
       </c>
       <c r="L52" s="10">
-        <v>0.874</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="M52" s="11">
-        <v>0.998</v>
-      </c>
-      <c r="N52" s="19">
-        <v>1.292</v>
+        <v>0.995</v>
+      </c>
+      <c r="N52" s="20">
+        <v>1.302</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9">
+        <v>46</v>
+      </c>
+      <c r="F53" s="9">
+        <v>64</v>
+      </c>
+      <c r="G53" s="21">
+        <v>3155</v>
+      </c>
+      <c r="H53" s="22">
+        <v>889</v>
+      </c>
+      <c r="I53" s="9">
+        <v>8</v>
+      </c>
+      <c r="J53" s="9">
+        <v>10</v>
+      </c>
+      <c r="K53" s="9">
+        <v>10</v>
+      </c>
+      <c r="L53" s="9">
+        <v>53</v>
+      </c>
+      <c r="M53" s="15">
+        <v>538</v>
+      </c>
+      <c r="N53" s="9">
         <v>12</v>
-      </c>
-      <c r="D53" s="9">
-        <v>15</v>
-      </c>
-      <c r="E53" s="9">
-        <v>48</v>
-      </c>
-      <c r="F53" s="9">
-        <v>92</v>
-      </c>
-      <c r="G53" s="20">
-        <v>3892</v>
-      </c>
-      <c r="H53" s="21">
-        <v>999</v>
-      </c>
-      <c r="I53" s="9">
-        <v>10</v>
-      </c>
-      <c r="J53" s="9">
-        <v>12</v>
-      </c>
-      <c r="K53" s="9">
-        <v>13</v>
-      </c>
-      <c r="L53" s="9">
-        <v>49</v>
-      </c>
-      <c r="M53" s="22">
-        <v>810</v>
-      </c>
-      <c r="N53" s="9">
-        <v>11</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="19">
-        <v>1.3029999999999999</v>
-      </c>
-      <c r="D54" s="11">
-        <v>0.99399999999999999</v>
+      <c r="B54" s="32"/>
+      <c r="C54" s="20">
+        <v>1.329</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0.93200000000000005</v>
       </c>
       <c r="E54" s="12">
-        <v>1.103</v>
-      </c>
-      <c r="F54" s="12">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1.548</v>
-      </c>
-      <c r="H54" s="24">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="I54" s="25">
-        <v>0.80500000000000005</v>
+        <v>1.109</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1.216</v>
+      </c>
+      <c r="I54" s="23">
+        <v>0.80400000000000005</v>
       </c>
       <c r="J54" s="12">
-        <v>1.139</v>
-      </c>
-      <c r="K54" s="12">
-        <v>1.139</v>
-      </c>
-      <c r="L54" s="13">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="M54" s="13">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="N54" s="26">
-        <v>1.4970000000000001</v>
+        <v>1.107</v>
+      </c>
+      <c r="K54" s="14">
+        <v>1.147</v>
+      </c>
+      <c r="L54" s="14">
+        <v>1.111</v>
+      </c>
+      <c r="M54" s="12">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="N54" s="24">
+        <v>1.5269999999999999</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="9">
         <v>11</v>
       </c>
-      <c r="E55" s="27">
-        <v>2111</v>
+      <c r="E55" s="25">
+        <v>1507</v>
       </c>
       <c r="F55" s="9">
         <v>10</v>
       </c>
       <c r="G55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H55" s="9">
         <v>16</v>
       </c>
       <c r="I55" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J55" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" s="9">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L55" s="9">
-        <v>21</v>
-      </c>
-      <c r="M55" s="21">
-        <v>890</v>
+        <v>20</v>
+      </c>
+      <c r="M55" s="26">
+        <v>586</v>
       </c>
       <c r="N55" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="19">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.0680000000000001</v>
+        <v>1.26</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1.048</v>
       </c>
       <c r="E56" s="12">
-        <v>1.145</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1.097</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="H56" s="13">
-        <v>1.091</v>
-      </c>
-      <c r="I56" s="12">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="J56" s="14">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="L56" s="11">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="M56" s="11">
-        <v>1.016</v>
+        <v>1.073</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1.119</v>
+      </c>
+      <c r="J56" s="13">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K56" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="M56" s="12">
+        <v>1.081</v>
       </c>
       <c r="N56" s="18">
-        <v>1.1879999999999999</v>
+        <v>1.228</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="9">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="E57" s="9">
         <v>24</v>
@@ -2036,13 +2042,13 @@
         <v>10</v>
       </c>
       <c r="G57" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J57" s="9">
         <v>28</v>
@@ -2051,81 +2057,81 @@
         <v>9</v>
       </c>
       <c r="L57" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M57" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N57" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="24">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1.089</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0.96599999999999997</v>
+      <c r="B58" s="32"/>
+      <c r="C58" s="27">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.93799999999999994</v>
       </c>
       <c r="F58" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="G58" s="14">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H58" s="11">
-        <v>1.0109999999999999</v>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1.0780000000000001</v>
       </c>
       <c r="I58" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="J58" s="13">
-        <v>1.04</v>
-      </c>
-      <c r="K58" s="11">
-        <v>1.0029999999999999</v>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K58" s="14">
+        <v>1.1479999999999999</v>
       </c>
       <c r="L58" s="10">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="M58" s="14">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="N58" s="19">
-        <v>1.31</v>
+        <v>0.87</v>
+      </c>
+      <c r="M58" s="11">
+        <v>1.014</v>
+      </c>
+      <c r="N58" s="20">
+        <v>1.349</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E59" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F59" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="15">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="H59" s="9">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="I59" s="9">
         <v>8</v>
@@ -2134,230 +2140,230 @@
         <v>10</v>
       </c>
       <c r="K59" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L59" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M59" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="26">
-        <v>1.486</v>
+      <c r="B60" s="32"/>
+      <c r="C60" s="28">
+        <v>1.552</v>
       </c>
       <c r="D60" s="11">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E60" s="14">
-        <v>0.97399999999999998</v>
+        <v>1.026</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0.97599999999999998</v>
       </c>
       <c r="F60" s="11">
-        <v>1.012</v>
-      </c>
-      <c r="G60" s="14">
-        <v>0.96299999999999997</v>
+        <v>1.02</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1.034</v>
       </c>
       <c r="H60" s="11">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I60" s="14">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="J60" s="25">
-        <v>0.86299999999999999</v>
+        <v>1.048</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0.92100000000000004</v>
       </c>
       <c r="K60" s="14">
+        <v>1.127</v>
+      </c>
+      <c r="L60" s="11">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="M60" s="13">
         <v>0.97599999999999998</v>
       </c>
-      <c r="L60" s="14">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="M60" s="10">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="N60" s="17">
-        <v>1.2470000000000001</v>
+      <c r="N60" s="19">
+        <v>1.2789999999999999</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>13</v>
+      </c>
+      <c r="D61" s="9">
+        <v>15</v>
+      </c>
+      <c r="E61" s="9">
         <v>12</v>
       </c>
-      <c r="D61" s="9">
-        <v>10</v>
-      </c>
-      <c r="E61" s="9">
-        <v>7</v>
-      </c>
       <c r="F61" s="9">
+        <v>8</v>
+      </c>
+      <c r="G61" s="9">
+        <v>51</v>
+      </c>
+      <c r="H61" s="29">
+        <v>2899</v>
+      </c>
+      <c r="I61" s="9">
+        <v>24</v>
+      </c>
+      <c r="J61" s="9">
+        <v>12</v>
+      </c>
+      <c r="K61" s="9">
+        <v>21</v>
+      </c>
+      <c r="L61" s="9">
         <v>9</v>
       </c>
-      <c r="G61" s="9">
-        <v>66</v>
-      </c>
-      <c r="H61" s="27">
-        <v>1950</v>
-      </c>
-      <c r="I61" s="9">
-        <v>28</v>
-      </c>
-      <c r="J61" s="9">
-        <v>11</v>
-      </c>
-      <c r="K61" s="9">
-        <v>26</v>
-      </c>
-      <c r="L61" s="9">
-        <v>12</v>
-      </c>
       <c r="M61" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="N61" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="28">
-        <v>1.619</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1.012</v>
+      <c r="B62" s="32"/>
+      <c r="C62" s="30">
+        <v>1.659</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1.0609999999999999</v>
       </c>
       <c r="E62" s="11">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F62" s="11">
-        <v>1.0329999999999999</v>
+        <v>0.995</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1.079</v>
       </c>
       <c r="G62" s="11">
-        <v>1.038</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1.113</v>
-      </c>
-      <c r="I62" s="12">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="J62" s="25">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="K62" s="14">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L62" s="10">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="M62" s="11">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="N62" s="28">
-        <v>1.6240000000000001</v>
+        <v>1.042</v>
+      </c>
+      <c r="H62" s="18">
+        <v>1.222</v>
+      </c>
+      <c r="I62" s="14">
+        <v>1.119</v>
+      </c>
+      <c r="J62" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="K62" s="12">
+        <v>1.077</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M62" s="12">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="N62" s="30">
+        <v>1.663</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="31" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D63" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="9">
         <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I63" s="9">
         <v>12</v>
       </c>
       <c r="J63" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K63" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L63" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M63" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N63" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="25">
+      <c r="B64" s="32"/>
+      <c r="C64" s="23">
         <v>0.83799999999999997</v>
       </c>
-      <c r="D64" s="14">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="E64" s="14">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="F64" s="14">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="G64" s="25">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0.91900000000000004</v>
+      <c r="D64" s="11">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G64" s="23">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0.93400000000000005</v>
       </c>
       <c r="I64" s="10">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="J64" s="25">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="K64" s="10">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="L64" s="25">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="M64" s="13">
-        <v>1.044</v>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0.879</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="L64" s="10">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M64" s="12">
+        <v>1.103</v>
       </c>
       <c r="N64" s="11">
-        <v>1.034</v>
+        <v>1.036</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2376,7 +2382,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/raw-data/JRL_block1_30_15_7.xlsx
+++ b/raw-data/JRL_block1_30_15_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">416813824</definedName>
-    <definedName name="MethodPointer2">566</definedName>
+    <definedName name="MethodPointer1">918421152</definedName>
+    <definedName name="MethodPointer2">483</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_15_8.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_15_7.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -541,6 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFABCEEA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,13 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
+        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
+        <fgColor rgb="FF247CBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3385C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3385C2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
+        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,46 +705,40 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45768</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.50510416666666669</v>
+        <v>0.55883101851851846</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1625,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1639,7 +1633,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1682,35 +1676,35 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E49" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="9">
+        <v>28</v>
+      </c>
+      <c r="G49" s="9">
+        <v>10</v>
+      </c>
+      <c r="H49" s="9">
+        <v>11</v>
+      </c>
+      <c r="I49" s="9">
         <v>9</v>
       </c>
-      <c r="G49" s="9">
-        <v>11</v>
-      </c>
-      <c r="H49" s="9">
+      <c r="J49" s="9">
+        <v>9</v>
+      </c>
+      <c r="K49" s="9">
         <v>10</v>
-      </c>
-      <c r="I49" s="9">
-        <v>10</v>
-      </c>
-      <c r="J49" s="9">
-        <v>11</v>
-      </c>
-      <c r="K49" s="9">
-        <v>13</v>
       </c>
       <c r="L49" s="9">
         <v>12</v>
@@ -1726,314 +1720,314 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="32"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="10">
-        <v>0.89800000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D50" s="11">
-        <v>1.0029999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="E50" s="12">
-        <v>1.103</v>
+        <v>1.125</v>
       </c>
       <c r="F50" s="13">
-        <v>0.95699999999999996</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="G50" s="12">
-        <v>1.081</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="I50" s="14">
-        <v>1.117</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="K50" s="13">
-        <v>0.97399999999999998</v>
+        <v>1.151</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="I50" s="12">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="J50" s="14">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0.95199999999999996</v>
       </c>
       <c r="L50" s="11">
-        <v>1.016</v>
-      </c>
-      <c r="M50" s="14">
-        <v>1.165</v>
-      </c>
-      <c r="N50" s="11">
-        <v>0.99099999999999999</v>
+        <v>1.006</v>
+      </c>
+      <c r="M50" s="12">
+        <v>1.143</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0.96199999999999997</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
+        <v>12</v>
+      </c>
+      <c r="D51" s="9">
+        <v>18</v>
+      </c>
+      <c r="E51" s="15">
+        <v>511</v>
+      </c>
+      <c r="F51" s="9">
         <v>13</v>
       </c>
-      <c r="D51" s="9">
-        <v>21</v>
-      </c>
-      <c r="E51" s="15">
-        <v>396</v>
-      </c>
-      <c r="F51" s="9">
-        <v>11</v>
-      </c>
       <c r="G51" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H51" s="16">
-        <v>3798</v>
+        <v>2798</v>
       </c>
       <c r="I51" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J51" s="9">
+        <v>10</v>
+      </c>
+      <c r="K51" s="16">
+        <v>2835</v>
+      </c>
+      <c r="L51" s="9">
+        <v>76</v>
+      </c>
+      <c r="M51" s="9">
+        <v>10</v>
+      </c>
+      <c r="N51" s="9">
         <v>8</v>
-      </c>
-      <c r="K51" s="17">
-        <v>2023</v>
-      </c>
-      <c r="L51" s="9">
-        <v>92</v>
-      </c>
-      <c r="M51" s="9">
-        <v>7</v>
-      </c>
-      <c r="N51" s="9">
-        <v>9</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
-      <c r="C52" s="18">
-        <v>1.224</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="E52" s="12">
-        <v>1.077</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1.022</v>
+      <c r="B52" s="30"/>
+      <c r="C52" s="17">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1.101</v>
+      </c>
+      <c r="E52" s="17">
+        <v>1.222</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1.147</v>
       </c>
       <c r="H52" s="19">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1.038</v>
-      </c>
-      <c r="J52" s="11">
-        <v>1.046</v>
+        <v>1.33</v>
+      </c>
+      <c r="I52" s="12">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1.101</v>
       </c>
       <c r="K52" s="19">
-        <v>1.264</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="L52" s="10">
-        <v>0.88300000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="M52" s="11">
-        <v>0.995</v>
-      </c>
-      <c r="N52" s="20">
-        <v>1.302</v>
+        <v>0.998</v>
+      </c>
+      <c r="N52" s="19">
+        <v>1.292</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>15</v>
+      </c>
+      <c r="E53" s="9">
+        <v>48</v>
+      </c>
+      <c r="F53" s="9">
+        <v>92</v>
+      </c>
+      <c r="G53" s="20">
+        <v>3892</v>
+      </c>
+      <c r="H53" s="21">
+        <v>999</v>
+      </c>
+      <c r="I53" s="9">
         <v>10</v>
       </c>
-      <c r="D53" s="9">
+      <c r="J53" s="9">
+        <v>12</v>
+      </c>
+      <c r="K53" s="9">
         <v>13</v>
       </c>
-      <c r="E53" s="9">
-        <v>46</v>
-      </c>
-      <c r="F53" s="9">
-        <v>64</v>
-      </c>
-      <c r="G53" s="21">
-        <v>3155</v>
-      </c>
-      <c r="H53" s="22">
-        <v>889</v>
-      </c>
-      <c r="I53" s="9">
-        <v>8</v>
-      </c>
-      <c r="J53" s="9">
-        <v>10</v>
-      </c>
-      <c r="K53" s="9">
-        <v>10</v>
-      </c>
       <c r="L53" s="9">
-        <v>53</v>
-      </c>
-      <c r="M53" s="15">
-        <v>538</v>
+        <v>49</v>
+      </c>
+      <c r="M53" s="22">
+        <v>810</v>
       </c>
       <c r="N53" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="32"/>
-      <c r="C54" s="20">
-        <v>1.329</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0.93200000000000005</v>
+      <c r="B54" s="30"/>
+      <c r="C54" s="19">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.99399999999999999</v>
       </c>
       <c r="E54" s="12">
-        <v>1.109</v>
-      </c>
-      <c r="F54" s="13">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G54" s="20">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="H54" s="18">
-        <v>1.216</v>
-      </c>
-      <c r="I54" s="23">
-        <v>0.80400000000000005</v>
+        <v>1.103</v>
+      </c>
+      <c r="F54" s="12">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1.548</v>
+      </c>
+      <c r="H54" s="24">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="I54" s="25">
+        <v>0.80500000000000005</v>
       </c>
       <c r="J54" s="12">
-        <v>1.107</v>
-      </c>
-      <c r="K54" s="14">
-        <v>1.147</v>
-      </c>
-      <c r="L54" s="14">
-        <v>1.111</v>
-      </c>
-      <c r="M54" s="12">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="N54" s="24">
-        <v>1.5269999999999999</v>
+        <v>1.139</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1.139</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="M54" s="13">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="N54" s="26">
+        <v>1.4970000000000001</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="9">
         <v>11</v>
       </c>
-      <c r="E55" s="25">
-        <v>1507</v>
+      <c r="E55" s="27">
+        <v>2111</v>
       </c>
       <c r="F55" s="9">
         <v>10</v>
       </c>
       <c r="G55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H55" s="9">
         <v>16</v>
       </c>
       <c r="I55" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K55" s="9">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="L55" s="9">
-        <v>20</v>
-      </c>
-      <c r="M55" s="26">
-        <v>586</v>
+        <v>21</v>
+      </c>
+      <c r="M55" s="21">
+        <v>890</v>
       </c>
       <c r="N55" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="32"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="19">
-        <v>1.26</v>
-      </c>
-      <c r="D56" s="11">
-        <v>1.048</v>
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.0680000000000001</v>
       </c>
       <c r="E56" s="12">
-        <v>1.073</v>
-      </c>
-      <c r="F56" s="11">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="H56" s="11">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="I56" s="14">
-        <v>1.119</v>
-      </c>
-      <c r="J56" s="13">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="K56" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="L56" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="M56" s="12">
-        <v>1.081</v>
+        <v>1.145</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1.097</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1.091</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="L56" s="11">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1.016</v>
       </c>
       <c r="N56" s="18">
-        <v>1.228</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="9">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="E57" s="9">
         <v>24</v>
@@ -2042,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="G57" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J57" s="9">
         <v>28</v>
@@ -2057,81 +2051,81 @@
         <v>9</v>
       </c>
       <c r="L57" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M57" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N57" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="32"/>
-      <c r="C58" s="27">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="D58" s="11">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0.93799999999999994</v>
+      <c r="B58" s="30"/>
+      <c r="C58" s="24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1.089</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.96599999999999997</v>
       </c>
       <c r="F58" s="10">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="G58" s="11">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="H58" s="12">
-        <v>1.0780000000000001</v>
+        <v>0.875</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H58" s="11">
+        <v>1.0109999999999999</v>
       </c>
       <c r="I58" s="10">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="J58" s="14">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K58" s="14">
-        <v>1.1479999999999999</v>
+        <v>0.91</v>
+      </c>
+      <c r="J58" s="13">
+        <v>1.04</v>
+      </c>
+      <c r="K58" s="11">
+        <v>1.0029999999999999</v>
       </c>
       <c r="L58" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="M58" s="11">
-        <v>1.014</v>
-      </c>
-      <c r="N58" s="20">
-        <v>1.349</v>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="M58" s="14">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="N58" s="19">
+        <v>1.31</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F59" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="15">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="H59" s="9">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="I59" s="9">
         <v>8</v>
@@ -2140,230 +2134,230 @@
         <v>10</v>
       </c>
       <c r="K59" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L59" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M59" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N59" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="32"/>
-      <c r="C60" s="28">
-        <v>1.552</v>
+      <c r="B60" s="30"/>
+      <c r="C60" s="26">
+        <v>1.486</v>
       </c>
       <c r="D60" s="11">
-        <v>1.026</v>
-      </c>
-      <c r="E60" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1.012</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J60" s="25">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="K60" s="14">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F60" s="11">
-        <v>1.02</v>
-      </c>
-      <c r="G60" s="11">
-        <v>1.034</v>
-      </c>
-      <c r="H60" s="11">
-        <v>1.048</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="J60" s="10">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="K60" s="14">
-        <v>1.127</v>
-      </c>
-      <c r="L60" s="11">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="M60" s="13">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N60" s="19">
-        <v>1.2789999999999999</v>
+      <c r="L60" s="14">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="M60" s="10">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="N60" s="17">
+        <v>1.2470000000000001</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="29" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61" s="9">
+        <v>7</v>
+      </c>
+      <c r="F61" s="9">
+        <v>9</v>
+      </c>
+      <c r="G61" s="9">
+        <v>66</v>
+      </c>
+      <c r="H61" s="27">
+        <v>1950</v>
+      </c>
+      <c r="I61" s="9">
+        <v>28</v>
+      </c>
+      <c r="J61" s="9">
+        <v>11</v>
+      </c>
+      <c r="K61" s="9">
+        <v>26</v>
+      </c>
+      <c r="L61" s="9">
         <v>12</v>
       </c>
-      <c r="F61" s="9">
-        <v>8</v>
-      </c>
-      <c r="G61" s="9">
-        <v>51</v>
-      </c>
-      <c r="H61" s="29">
-        <v>2899</v>
-      </c>
-      <c r="I61" s="9">
-        <v>24</v>
-      </c>
-      <c r="J61" s="9">
-        <v>12</v>
-      </c>
-      <c r="K61" s="9">
-        <v>21</v>
-      </c>
-      <c r="L61" s="9">
-        <v>9</v>
-      </c>
       <c r="M61" s="9">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N61" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="32"/>
-      <c r="C62" s="30">
-        <v>1.659</v>
-      </c>
-      <c r="D62" s="12">
-        <v>1.0609999999999999</v>
+      <c r="B62" s="30"/>
+      <c r="C62" s="28">
+        <v>1.619</v>
+      </c>
+      <c r="D62" s="11">
+        <v>1.012</v>
       </c>
       <c r="E62" s="11">
-        <v>0.995</v>
-      </c>
-      <c r="F62" s="12">
-        <v>1.079</v>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1.0329999999999999</v>
       </c>
       <c r="G62" s="11">
-        <v>1.042</v>
-      </c>
-      <c r="H62" s="18">
-        <v>1.222</v>
-      </c>
-      <c r="I62" s="14">
-        <v>1.119</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="K62" s="12">
-        <v>1.077</v>
-      </c>
-      <c r="L62" s="13">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M62" s="12">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="N62" s="30">
-        <v>1.663</v>
+        <v>1.038</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1.113</v>
+      </c>
+      <c r="I62" s="12">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="J62" s="25">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K62" s="14">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L62" s="10">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="M62" s="11">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="N62" s="28">
+        <v>1.6240000000000001</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="29" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D63" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="9">
         <v>10</v>
       </c>
       <c r="F63" s="9">
+        <v>10</v>
+      </c>
+      <c r="G63" s="9">
+        <v>10</v>
+      </c>
+      <c r="H63" s="9">
         <v>11</v>
-      </c>
-      <c r="G63" s="9">
-        <v>11</v>
-      </c>
-      <c r="H63" s="9">
-        <v>8</v>
       </c>
       <c r="I63" s="9">
         <v>12</v>
       </c>
       <c r="J63" s="9">
+        <v>13</v>
+      </c>
+      <c r="K63" s="9">
         <v>10</v>
       </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
         <v>12</v>
       </c>
-      <c r="L63" s="9">
-        <v>11</v>
-      </c>
       <c r="M63" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N63" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
-      <c r="C64" s="23">
+      <c r="B64" s="30"/>
+      <c r="C64" s="25">
         <v>0.83799999999999997</v>
       </c>
-      <c r="D64" s="11">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="E64" s="13">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="F64" s="13">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0.93400000000000005</v>
+      <c r="D64" s="14">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0.91900000000000004</v>
       </c>
       <c r="I64" s="10">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0.879</v>
-      </c>
-      <c r="K64" s="13">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="L64" s="10">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="M64" s="12">
-        <v>1.103</v>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J64" s="25">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L64" s="25">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="M64" s="13">
+        <v>1.044</v>
       </c>
       <c r="N64" s="11">
-        <v>1.036</v>
+        <v>1.034</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2382,6 +2376,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>